--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1813193.761837126</v>
+        <v>1758241.872553029</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079586</v>
+        <v>11497228.11079585</v>
       </c>
     </row>
     <row r="9">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>326.2189840146596</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>17.23995492817182</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,19 +1417,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>64.82378823769483</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>49.9637076561209</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886886</v>
+        <v>86.89603752886887</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
@@ -1505,19 +1505,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1545,13 +1545,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>77.520128249438</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553588</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>8.916258666856656</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>326.2189840146596</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>73.22712598821624</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1694,13 +1694,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>118.2964226714636</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886887</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>133.9320451344738</v>
       </c>
       <c r="W15" t="n">
-        <v>22.70042032133642</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.35340349906437</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>155.8614510880959</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>76.18361161768512</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>103.7577320477708</v>
       </c>
       <c r="G17" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90.2259534486298</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>36.35453526447067</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -1988,10 +1988,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>137.4545982671966</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>80.39631948615252</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>198.2427904969659</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>19.49786244696175</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>13.78752595064839</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350707</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,7 +2216,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -2225,10 +2225,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>204.0971673974399</v>
       </c>
     </row>
     <row r="22">
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
-        <v>7.226885210986056</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>290.3107070893353</v>
+        <v>8.916258666856805</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>240.4660086744112</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,13 +2377,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>149.5657419976165</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -2414,10 +2414,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>49.4594279570487</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>69.06140175005439</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>131.0804113283488</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>80.39631948615261</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>111.5149362627843</v>
       </c>
       <c r="F26" t="n">
         <v>403.1992496400135</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>122.3215916195971</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>93.56084961252469</v>
       </c>
       <c r="H27" t="n">
-        <v>80.02685206469964</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
         <v>217.3129144394706</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>73.35340349906451</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>129.4825785166958</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2.387443116048529</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>403.1992496400135</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>94.15598262478159</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>150.4887228985659</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886885</v>
+        <v>16.177493122144</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -2936,10 +2936,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>7.226885210985775</v>
       </c>
       <c r="V31" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>52.42857711587115</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>228.6653766999086</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>35.4414830162489</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>56.30247847050927</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>39.1960505294216</v>
       </c>
     </row>
     <row r="34">
@@ -3240,7 +3240,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T34" t="n">
-        <v>73.35340349906451</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>73.35340349906454</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3313,22 +3313,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7.236193781863851</v>
+        <v>213.3994939560358</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>3.329915919761022</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>209.1515995458305</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>224.3942962732595</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>75.61813689207857</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>273.3562446648232</v>
       </c>
       <c r="D38" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>403.1992496400135</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>134.7549293585491</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.329915919761465</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>75.07878000553362</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.1773944157285</v>
@@ -3647,7 +3647,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>131.0804113283487</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>123.14340038001</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>179.845503396693</v>
       </c>
       <c r="H41" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>55.63988625796227</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3824,7 +3824,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -3833,7 +3833,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>21.63344802146457</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>79.77404738435631</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>119.920671635353</v>
       </c>
       <c r="F43" t="n">
-        <v>129.482578516696</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>52.45816323286373</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>326.2189840146598</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4055,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>126.4556653517081</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>118.2964226714636</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1773944157285</v>
+        <v>117.7959911119838</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>62.87030353166048</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>8.91625866685696</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1715.732642722257</v>
+        <v>459.0007180748344</v>
       </c>
       <c r="C11" t="n">
-        <v>1715.732642722257</v>
+        <v>459.0007180748344</v>
       </c>
       <c r="D11" t="n">
-        <v>1715.732642722257</v>
+        <v>459.0007180748344</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.218517454924</v>
+        <v>459.0007180748344</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>51.72874874148738</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193748</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292774</v>
       </c>
       <c r="N11" t="n">
         <v>1186.279026157782</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.632785841148</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716934</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722257</v>
       </c>
       <c r="R11" t="n">
-        <v>1715.732642722257</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S11" t="n">
-        <v>1715.732642722257</v>
+        <v>1413.548593210147</v>
       </c>
       <c r="T11" t="n">
-        <v>1715.732642722257</v>
+        <v>1413.548593210147</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.732642722257</v>
+        <v>1160.987610990981</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722257</v>
+        <v>836.8666174463832</v>
       </c>
       <c r="W11" t="n">
-        <v>1715.732642722257</v>
+        <v>836.8666174463832</v>
       </c>
       <c r="X11" t="n">
-        <v>1715.732642722257</v>
+        <v>836.8666174463832</v>
       </c>
       <c r="Y11" t="n">
-        <v>1715.732642722257</v>
+        <v>836.8666174463832</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.78304442628445</v>
+        <v>611.1937644001387</v>
       </c>
       <c r="C12" t="n">
-        <v>84.78304442628445</v>
+        <v>545.7151904226691</v>
       </c>
       <c r="D12" t="n">
-        <v>84.78304442628445</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="E12" t="n">
-        <v>84.78304442628445</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="F12" t="n">
-        <v>84.78304442628445</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G12" t="n">
-        <v>84.78304442628445</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H12" t="n">
-        <v>84.78304442628445</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889813</v>
+        <v>195.4144734331678</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443594</v>
+        <v>478.3196054885459</v>
       </c>
       <c r="M12" t="n">
-        <v>873.305863297421</v>
+        <v>853.2112150416074</v>
       </c>
       <c r="N12" t="n">
-        <v>1276.539627797432</v>
+        <v>1082.820066520715</v>
       </c>
       <c r="O12" t="n">
-        <v>1589.672661844326</v>
+        <v>1395.953100567609</v>
       </c>
       <c r="P12" t="n">
-        <v>1715.732642722257</v>
+        <v>1625.193464940059</v>
       </c>
       <c r="Q12" t="n">
         <v>1715.732642722257</v>
       </c>
       <c r="R12" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440571</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007116</v>
+        <v>1448.884598007115</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775051</v>
+        <v>1234.87830477505</v>
       </c>
       <c r="U12" t="n">
-        <v>995.3051791025978</v>
+        <v>1234.87830477505</v>
       </c>
       <c r="V12" t="n">
-        <v>752.2254610062319</v>
+        <v>1234.87830477505</v>
       </c>
       <c r="W12" t="n">
-        <v>482.8268917365232</v>
+        <v>1234.87830477505</v>
       </c>
       <c r="X12" t="n">
-        <v>263.3188973532195</v>
+        <v>1015.370310391746</v>
       </c>
       <c r="Y12" t="n">
-        <v>263.3188973532195</v>
+        <v>789.7296173270738</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="C13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="D13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="E13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="F13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="G13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="H13" t="n">
-        <v>256.5545155321047</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="I13" t="n">
-        <v>109.6523243044814</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514567</v>
+        <v>42.23041924514564</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306431</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662942</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316462</v>
+        <v>262.172078831646</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098954</v>
+        <v>315.4306320098952</v>
       </c>
       <c r="P13" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800217</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800217</v>
       </c>
       <c r="R13" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800217</v>
       </c>
       <c r="S13" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800217</v>
       </c>
       <c r="T13" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800217</v>
       </c>
       <c r="U13" t="n">
-        <v>334.8576753800219</v>
+        <v>43.32097474015893</v>
       </c>
       <c r="V13" t="n">
-        <v>334.8576753800219</v>
+        <v>43.32097474015893</v>
       </c>
       <c r="W13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="X13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.8576753800219</v>
+        <v>34.31465285444514</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1715.732642722257</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="C14" t="n">
-        <v>1715.732642722257</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="D14" t="n">
-        <v>1715.732642722257</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E14" t="n">
-        <v>1386.218517454924</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F14" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G14" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H14" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I14" t="n">
         <v>34.31465285444515</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389717</v>
+        <v>525.5283691389723</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157782</v>
@@ -5302,28 +5302,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R14" t="n">
-        <v>1715.732642722257</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S14" t="n">
-        <v>1715.732642722257</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T14" t="n">
-        <v>1715.732642722257</v>
+        <v>1195.201146295157</v>
       </c>
       <c r="U14" t="n">
-        <v>1715.732642722257</v>
+        <v>1121.234352367665</v>
       </c>
       <c r="V14" t="n">
-        <v>1715.732642722257</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="W14" t="n">
-        <v>1715.732642722257</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="X14" t="n">
-        <v>1715.732642722257</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="Y14" t="n">
-        <v>1715.732642722257</v>
+        <v>797.1133588230673</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1069.118384851047</v>
+        <v>585.6584311129453</v>
       </c>
       <c r="C15" t="n">
-        <v>879.7061105840106</v>
+        <v>396.246156845909</v>
       </c>
       <c r="D15" t="n">
-        <v>718.9259943450423</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="E15" t="n">
-        <v>545.3627904664568</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="F15" t="n">
-        <v>384.9350741837009</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G15" t="n">
         <v>235.4660406069408</v>
@@ -5363,10 +5363,10 @@
         <v>195.4144734331678</v>
       </c>
       <c r="L15" t="n">
-        <v>478.3196054885459</v>
+        <v>304.6946924676439</v>
       </c>
       <c r="M15" t="n">
-        <v>679.5863020207051</v>
+        <v>679.5863020207054</v>
       </c>
       <c r="N15" t="n">
         <v>1082.820066520716</v>
@@ -5381,28 +5381,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R15" t="n">
-        <v>1715.732642722257</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S15" t="n">
-        <v>1715.732642722257</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T15" t="n">
-        <v>1715.732642722257</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="U15" t="n">
-        <v>1715.732642722257</v>
+        <v>1388.385741768119</v>
       </c>
       <c r="V15" t="n">
-        <v>1715.732642722257</v>
+        <v>1253.100847692893</v>
       </c>
       <c r="W15" t="n">
-        <v>1692.802925225958</v>
+        <v>983.702278423184</v>
       </c>
       <c r="X15" t="n">
-        <v>1473.294930842654</v>
+        <v>764.1942840398804</v>
       </c>
       <c r="Y15" t="n">
-        <v>1247.654237777982</v>
+        <v>764.1942840398804</v>
       </c>
     </row>
     <row r="16">
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
       <c r="C16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
       <c r="D16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
       <c r="E16" t="n">
         <v>34.31465285444515</v>
@@ -5439,7 +5439,7 @@
         <v>34.31465285444515</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514567</v>
+        <v>42.23041924514565</v>
       </c>
       <c r="L16" t="n">
         <v>105.4471208306431</v>
@@ -5448,40 +5448,40 @@
         <v>180.6961586662943</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316461</v>
       </c>
       <c r="O16" t="n">
         <v>315.4306320098954</v>
       </c>
       <c r="P16" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800218</v>
       </c>
       <c r="Q16" t="n">
-        <v>334.8576753800219</v>
+        <v>334.8576753800218</v>
       </c>
       <c r="R16" t="n">
-        <v>260.76332841127</v>
+        <v>334.8576753800218</v>
       </c>
       <c r="S16" t="n">
-        <v>34.31465285444515</v>
+        <v>334.8576753800218</v>
       </c>
       <c r="T16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
       <c r="U16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
       <c r="V16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
       <c r="W16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
       <c r="X16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
       <c r="Y16" t="n">
-        <v>34.31465285444515</v>
+        <v>177.421866200127</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1463.171660503091</v>
+        <v>748.1180402455836</v>
       </c>
       <c r="C17" t="n">
-        <v>1463.171660503091</v>
+        <v>748.1180402455836</v>
       </c>
       <c r="D17" t="n">
-        <v>1463.171660503091</v>
+        <v>748.1180402455836</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.218517454924</v>
+        <v>748.1180402455836</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>643.3122502983404</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H17" t="n">
         <v>221.6975439683318</v>
@@ -5515,7 +5515,7 @@
         <v>34.31465285444515</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602979</v>
       </c>
       <c r="K17" t="n">
         <v>253.8975067193749</v>
@@ -5524,7 +5524,7 @@
         <v>525.5283691389718</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157782</v>
@@ -5539,28 +5539,28 @@
         <v>1715.732642722257</v>
       </c>
       <c r="R17" t="n">
-        <v>1715.732642722257</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S17" t="n">
-        <v>1715.732642722257</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T17" t="n">
-        <v>1715.732642722257</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="U17" t="n">
-        <v>1463.171660503091</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="V17" t="n">
-        <v>1463.171660503091</v>
+        <v>1089.42759966555</v>
       </c>
       <c r="W17" t="n">
-        <v>1463.171660503091</v>
+        <v>748.1180402455836</v>
       </c>
       <c r="X17" t="n">
-        <v>1463.171660503091</v>
+        <v>748.1180402455836</v>
       </c>
       <c r="Y17" t="n">
-        <v>1463.171660503091</v>
+        <v>748.1180402455836</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34.31465285444515</v>
+        <v>1024.180085922727</v>
       </c>
       <c r="C18" t="n">
-        <v>34.31465285444515</v>
+        <v>834.767811655691</v>
       </c>
       <c r="D18" t="n">
-        <v>34.31465285444515</v>
+        <v>673.9876954167228</v>
       </c>
       <c r="E18" t="n">
-        <v>34.31465285444515</v>
+        <v>500.4244915381372</v>
       </c>
       <c r="F18" t="n">
-        <v>34.31465285444515</v>
+        <v>339.9967752553813</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444515</v>
+        <v>190.5277416786212</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444515</v>
+        <v>71.03640564683977</v>
       </c>
       <c r="I18" t="n">
         <v>34.31465285444515</v>
@@ -5597,13 +5597,13 @@
         <v>54.40930111025865</v>
       </c>
       <c r="K18" t="n">
-        <v>215.5091216889813</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="L18" t="n">
-        <v>498.4142537443595</v>
+        <v>337.3144331656368</v>
       </c>
       <c r="M18" t="n">
-        <v>873.305863297421</v>
+        <v>679.5863020207051</v>
       </c>
       <c r="N18" t="n">
         <v>1082.820066520716</v>
@@ -5624,22 +5624,22 @@
         <v>1536.658373288802</v>
       </c>
       <c r="T18" t="n">
-        <v>1322.652080056736</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="U18" t="n">
-        <v>1083.078954384283</v>
+        <v>1536.658373288802</v>
       </c>
       <c r="V18" t="n">
-        <v>839.9992362879175</v>
+        <v>1293.578655192436</v>
       </c>
       <c r="W18" t="n">
-        <v>570.6006670182088</v>
+        <v>1024.180085922727</v>
       </c>
       <c r="X18" t="n">
-        <v>351.0926726349052</v>
+        <v>1024.180085922727</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.4519795702328</v>
+        <v>1024.180085922727</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="C19" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="D19" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="E19" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="F19" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="G19" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H19" t="n">
-        <v>1554.032648749404</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I19" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J19" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K19" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514567</v>
       </c>
       <c r="L19" t="n">
-        <v>1486.322088172878</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M19" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N19" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O19" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P19" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q19" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R19" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S19" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="T19" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="U19" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="V19" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="W19" t="n">
-        <v>1715.732642722257</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="X19" t="n">
-        <v>1715.732642722257</v>
+        <v>253.6492718586557</v>
       </c>
       <c r="Y19" t="n">
-        <v>1715.732642722257</v>
+        <v>34.31465285444515</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>388.0575795021006</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="C20" t="n">
-        <v>34.31465285444515</v>
+        <v>1204.385328156414</v>
       </c>
       <c r="D20" t="n">
-        <v>34.31465285444515</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E20" t="n">
-        <v>34.31465285444515</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F20" t="n">
-        <v>34.31465285444515</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602979</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292775</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O20" t="n">
         <v>1460.632785841149</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R20" t="n">
-        <v>1715.732642722257</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S20" t="n">
-        <v>1715.732642722257</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T20" t="n">
-        <v>1515.487399796029</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U20" t="n">
-        <v>1515.487399796029</v>
+        <v>1590.532365952828</v>
       </c>
       <c r="V20" t="n">
-        <v>1515.487399796029</v>
+        <v>1590.532365952828</v>
       </c>
       <c r="W20" t="n">
-        <v>1515.487399796029</v>
+        <v>1590.532365952828</v>
       </c>
       <c r="X20" t="n">
-        <v>1152.070516670063</v>
+        <v>1590.532365952828</v>
       </c>
       <c r="Y20" t="n">
-        <v>765.9234788736494</v>
+        <v>1204.385328156414</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>570.6006670182088</v>
+        <v>384.5070433604496</v>
       </c>
       <c r="C21" t="n">
-        <v>570.6006670182088</v>
+        <v>195.0947690934134</v>
       </c>
       <c r="D21" t="n">
-        <v>409.8205507792405</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E21" t="n">
-        <v>409.8205507792405</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F21" t="n">
-        <v>249.3928344964846</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444515</v>
+        <v>54.40930111025865</v>
       </c>
       <c r="K21" t="n">
-        <v>34.31465285444515</v>
+        <v>112.3287381944634</v>
       </c>
       <c r="L21" t="n">
-        <v>317.2197849098233</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M21" t="n">
-        <v>692.1113944628848</v>
+        <v>770.125479802903</v>
       </c>
       <c r="N21" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O21" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P21" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S21" t="n">
         <v>1536.658373288802</v>
       </c>
       <c r="T21" t="n">
-        <v>1322.652080056736</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="U21" t="n">
-        <v>1083.078954384283</v>
+        <v>1322.652080056737</v>
       </c>
       <c r="V21" t="n">
-        <v>839.9992362879175</v>
+        <v>1079.572361960371</v>
       </c>
       <c r="W21" t="n">
-        <v>570.6006670182088</v>
+        <v>810.1737926906623</v>
       </c>
       <c r="X21" t="n">
-        <v>570.6006670182088</v>
+        <v>590.6657983073586</v>
       </c>
       <c r="Y21" t="n">
-        <v>570.6006670182088</v>
+        <v>384.5070433604496</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514568</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.322088172878</v>
+        <v>105.4471208306431</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662943</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316462</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098954</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="R22" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="S22" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.732642722257</v>
+        <v>334.8576753800219</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.732642722257</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="V22" t="n">
-        <v>1708.432758670756</v>
+        <v>43.3209747401591</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y22" t="n">
-        <v>1415.18962019668</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>277.2096111114262</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="C23" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="D23" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444516</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444516</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887603007</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389722</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O23" t="n">
         <v>1460.632785841149</v>
@@ -6010,31 +6010,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R23" t="n">
-        <v>1610.227176505315</v>
+        <v>1610.227176505314</v>
       </c>
       <c r="S23" t="n">
-        <v>1413.548593210149</v>
+        <v>1413.548593210148</v>
       </c>
       <c r="T23" t="n">
         <v>1195.201146295157</v>
       </c>
       <c r="U23" t="n">
-        <v>942.6401640759908</v>
+        <v>942.6401640759904</v>
       </c>
       <c r="V23" t="n">
-        <v>618.5191705313928</v>
+        <v>942.6401640759904</v>
       </c>
       <c r="W23" t="n">
-        <v>277.2096111114262</v>
+        <v>942.6401640759904</v>
       </c>
       <c r="X23" t="n">
-        <v>277.2096111114262</v>
+        <v>791.5636570076908</v>
       </c>
       <c r="Y23" t="n">
-        <v>277.2096111114262</v>
+        <v>791.5636570076908</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>810.1737926906623</v>
+        <v>694.4037932199657</v>
       </c>
       <c r="C24" t="n">
-        <v>810.1737926906623</v>
+        <v>504.9915189529294</v>
       </c>
       <c r="D24" t="n">
-        <v>649.393676451694</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="E24" t="n">
-        <v>475.8304725731084</v>
+        <v>344.2114027139611</v>
       </c>
       <c r="F24" t="n">
-        <v>315.4027562903525</v>
+        <v>183.7836864312052</v>
       </c>
       <c r="G24" t="n">
-        <v>165.9337227135924</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889813</v>
+        <v>112.3287381944626</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498408</v>
       </c>
       <c r="M24" t="n">
-        <v>679.5863020207056</v>
+        <v>770.1254798029023</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302913</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349807</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722257</v>
       </c>
       <c r="R24" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S24" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T24" t="n">
-        <v>1322.652080056737</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="U24" t="n">
-        <v>1322.652080056737</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="V24" t="n">
-        <v>1079.572361960371</v>
+        <v>1209.311472334663</v>
       </c>
       <c r="W24" t="n">
-        <v>810.1737926906623</v>
+        <v>1139.552480667942</v>
       </c>
       <c r="X24" t="n">
-        <v>810.1737926906623</v>
+        <v>920.044486284638</v>
       </c>
       <c r="Y24" t="n">
-        <v>810.1737926906623</v>
+        <v>694.4037932199657</v>
       </c>
     </row>
     <row r="25">
@@ -6123,43 +6123,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="F25" t="n">
-        <v>34.31465285444516</v>
+        <v>166.7191087416661</v>
       </c>
       <c r="G25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="H25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="I25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444515</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514568</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M25" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
         <v>315.4306320098955</v>
@@ -6189,10 +6189,10 @@
         <v>334.857675380022</v>
       </c>
       <c r="X25" t="n">
-        <v>253.6492718586557</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.31465285444516</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1592.175479470139</v>
+        <v>1329.585604925844</v>
       </c>
       <c r="C26" t="n">
-        <v>1238.432552822484</v>
+        <v>975.8426782781889</v>
       </c>
       <c r="D26" t="n">
-        <v>1238.432552822484</v>
+        <v>975.8426782781889</v>
       </c>
       <c r="E26" t="n">
         <v>863.2013285178008</v>
@@ -6217,61 +6217,61 @@
         <v>455.9293591844538</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887603007</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193753</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292784</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P26" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1592.175479470139</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U26" t="n">
-        <v>1592.175479470139</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V26" t="n">
-        <v>1592.175479470139</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W26" t="n">
-        <v>1592.175479470139</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X26" t="n">
-        <v>1592.175479470139</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y26" t="n">
-        <v>1592.175479470139</v>
+        <v>1329.585604925844</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>546.6498992307088</v>
+        <v>491.7960396995869</v>
       </c>
       <c r="C27" t="n">
-        <v>357.2376249636725</v>
+        <v>302.3837654325506</v>
       </c>
       <c r="D27" t="n">
-        <v>357.2376249636725</v>
+        <v>302.3837654325506</v>
       </c>
       <c r="E27" t="n">
-        <v>357.2376249636725</v>
+        <v>128.8205615539651</v>
       </c>
       <c r="F27" t="n">
-        <v>196.8099086809166</v>
+        <v>128.8205615539651</v>
       </c>
       <c r="G27" t="n">
-        <v>196.8099086809166</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>34.31465285444515</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>304.6946924676437</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M27" t="n">
-        <v>679.5863020207051</v>
+        <v>770.1254798029032</v>
       </c>
       <c r="N27" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O27" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P27" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S27" t="n">
-        <v>1448.884598007116</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T27" t="n">
-        <v>1234.878304775051</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U27" t="n">
-        <v>1234.878304775051</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="V27" t="n">
-        <v>991.7985866786848</v>
+        <v>1384.879149344207</v>
       </c>
       <c r="W27" t="n">
-        <v>991.7985866786848</v>
+        <v>1115.480580074498</v>
       </c>
       <c r="X27" t="n">
-        <v>772.2905922953812</v>
+        <v>895.9725856911944</v>
       </c>
       <c r="Y27" t="n">
-        <v>546.6498992307088</v>
+        <v>670.3318926265219</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>108.4089998231972</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="C28" t="n">
-        <v>108.4089998231972</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="D28" t="n">
-        <v>108.4089998231972</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444515</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444515</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
         <v>315.4306320098955</v>
@@ -6411,25 +6411,25 @@
         <v>334.857675380022</v>
       </c>
       <c r="S28" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T28" t="n">
-        <v>108.4089998231972</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U28" t="n">
-        <v>108.4089998231972</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="V28" t="n">
-        <v>108.4089998231972</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="W28" t="n">
-        <v>108.4089998231972</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="X28" t="n">
-        <v>108.4089998231972</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="Y28" t="n">
-        <v>108.4089998231972</v>
+        <v>204.0671920298242</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>797.7411075385269</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="C29" t="n">
-        <v>443.9981808908715</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="D29" t="n">
-        <v>443.9981808908715</v>
+        <v>441.5866221877922</v>
       </c>
       <c r="E29" t="n">
         <v>441.5866221877922</v>
       </c>
       <c r="F29" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602973</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292776</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
         <v>1460.632785841149</v>
@@ -6484,31 +6484,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722257</v>
+        <v>1620.625589565913</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722257</v>
+        <v>1423.947006270747</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722257</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="U29" t="n">
-        <v>1463.171660503091</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="V29" t="n">
-        <v>1139.050666958493</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="W29" t="n">
-        <v>797.7411075385269</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="X29" t="n">
-        <v>797.7411075385269</v>
+        <v>1205.599559355755</v>
       </c>
       <c r="Y29" t="n">
-        <v>797.7411075385269</v>
+        <v>819.452521559341</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>697.3716014751092</v>
+        <v>384.1546434042374</v>
       </c>
       <c r="C30" t="n">
-        <v>697.3716014751092</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="D30" t="n">
-        <v>697.3716014751092</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3627904664568</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>112.3287381944629</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L30" t="n">
-        <v>395.2338702498411</v>
+        <v>478.319605488546</v>
       </c>
       <c r="M30" t="n">
-        <v>770.1254798029025</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N30" t="n">
-        <v>1173.359244302914</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O30" t="n">
-        <v>1486.492278349808</v>
+        <v>1569.578013588512</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440572</v>
+        <v>1699.391740578679</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.958867440572</v>
+        <v>1520.317471145223</v>
       </c>
       <c r="T30" t="n">
-        <v>1627.958867440572</v>
+        <v>1520.317471145223</v>
       </c>
       <c r="U30" t="n">
-        <v>1388.385741768119</v>
+        <v>1520.317471145223</v>
       </c>
       <c r="V30" t="n">
-        <v>1145.306023671753</v>
+        <v>1277.237753048857</v>
       </c>
       <c r="W30" t="n">
-        <v>875.9074544020442</v>
+        <v>1007.839183779148</v>
       </c>
       <c r="X30" t="n">
-        <v>875.9074544020442</v>
+        <v>788.3311893958448</v>
       </c>
       <c r="Y30" t="n">
-        <v>875.9074544020442</v>
+        <v>562.6904963311724</v>
       </c>
     </row>
     <row r="31">
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
         <v>315.4306320098955</v>
@@ -6654,19 +6654,19 @@
         <v>334.857675380022</v>
       </c>
       <c r="U31" t="n">
-        <v>334.857675380022</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="V31" t="n">
-        <v>87.27281155734531</v>
+        <v>327.5577913285213</v>
       </c>
       <c r="W31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.31465285444515</v>
+        <v>1013.745749806111</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444515</v>
+        <v>1013.745749806111</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444515</v>
+        <v>672.5617501674978</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444515</v>
+        <v>672.5617501674978</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444515</v>
+        <v>265.2897808341509</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389718</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O32" t="n">
         <v>1460.632785841149</v>
@@ -6724,28 +6724,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R32" t="n">
-        <v>1610.227176505315</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S32" t="n">
-        <v>1413.548593210149</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T32" t="n">
-        <v>1377.749115415958</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U32" t="n">
-        <v>1125.188133196792</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V32" t="n">
-        <v>1125.188133196792</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="W32" t="n">
-        <v>783.8785737768251</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="X32" t="n">
-        <v>420.4616906508592</v>
+        <v>1391.61164917766</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.31465285444515</v>
+        <v>1391.61164917766</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>718.9259943450423</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C33" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D33" t="n">
-        <v>718.9259943450423</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E33" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F33" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G33" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889813</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L33" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498417</v>
       </c>
       <c r="M33" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029032</v>
       </c>
       <c r="N33" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O33" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P33" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R33" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1448.884598007116</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T33" t="n">
-        <v>1234.878304775051</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U33" t="n">
-        <v>995.3051791025978</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V33" t="n">
-        <v>938.433988728346</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W33" t="n">
-        <v>938.433988728346</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X33" t="n">
-        <v>718.9259943450423</v>
+        <v>263.3188973532204</v>
       </c>
       <c r="Y33" t="n">
-        <v>718.9259943450423</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M34" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N34" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
         <v>315.4306320098955</v>
@@ -6888,22 +6888,22 @@
         <v>108.4089998231972</v>
       </c>
       <c r="T34" t="n">
-        <v>34.31465285444515</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="U34" t="n">
-        <v>34.31465285444515</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="V34" t="n">
-        <v>34.31465285444515</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="W34" t="n">
-        <v>34.31465285444515</v>
+        <v>108.4089998231972</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1511.744772778744</v>
+        <v>729.2415791407141</v>
       </c>
       <c r="C35" t="n">
-        <v>1158.001846131089</v>
+        <v>375.4986524930586</v>
       </c>
       <c r="D35" t="n">
-        <v>816.8178464924752</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E35" t="n">
-        <v>441.5866221877922</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F35" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L35" t="n">
         <v>525.5283691389718</v>
@@ -6949,7 +6949,7 @@
         <v>856.6460009292778</v>
       </c>
       <c r="N35" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
         <v>1460.632785841149</v>
@@ -6958,31 +6958,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722257</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1519.054059427091</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T35" t="n">
-        <v>1511.744772778744</v>
+        <v>1394.672132105279</v>
       </c>
       <c r="U35" t="n">
-        <v>1511.744772778744</v>
+        <v>1394.672132105279</v>
       </c>
       <c r="V35" t="n">
-        <v>1511.744772778744</v>
+        <v>1070.551138560681</v>
       </c>
       <c r="W35" t="n">
-        <v>1511.744772778744</v>
+        <v>729.2415791407141</v>
       </c>
       <c r="X35" t="n">
-        <v>1511.744772778744</v>
+        <v>729.2415791407141</v>
       </c>
       <c r="Y35" t="n">
-        <v>1511.744772778744</v>
+        <v>729.2415791407141</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>37.67820428854719</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="C36" t="n">
-        <v>37.67820428854719</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="D36" t="n">
-        <v>37.67820428854719</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E36" t="n">
-        <v>37.67820428854719</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F36" t="n">
-        <v>37.67820428854719</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G36" t="n">
-        <v>37.67820428854719</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025865</v>
+        <v>54.40930111025867</v>
       </c>
       <c r="K36" t="n">
-        <v>54.40930111025865</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L36" t="n">
-        <v>337.3144331656368</v>
+        <v>498.4142537443595</v>
       </c>
       <c r="M36" t="n">
-        <v>712.2060427186982</v>
+        <v>873.305863297421</v>
       </c>
       <c r="N36" t="n">
-        <v>1115.439807218709</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O36" t="n">
-        <v>1428.572841265603</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P36" t="n">
-        <v>1657.813205638053</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S36" t="n">
-        <v>1448.884598007116</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T36" t="n">
-        <v>1234.878304775051</v>
+        <v>1504.468400756773</v>
       </c>
       <c r="U36" t="n">
-        <v>995.3051791025978</v>
+        <v>1504.468400756773</v>
       </c>
       <c r="V36" t="n">
-        <v>752.2254610062319</v>
+        <v>1261.388682660407</v>
       </c>
       <c r="W36" t="n">
-        <v>482.8268917365232</v>
+        <v>991.9901133906978</v>
       </c>
       <c r="X36" t="n">
-        <v>263.3188973532195</v>
+        <v>772.4821190073942</v>
       </c>
       <c r="Y36" t="n">
-        <v>37.67820428854719</v>
+        <v>546.8414259427218</v>
       </c>
     </row>
     <row r="37">
@@ -7071,43 +7071,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>42.23041924514568</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L37" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M37" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N37" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
         <v>315.4306320098955</v>
@@ -7116,31 +7116,31 @@
         <v>334.857675380022</v>
       </c>
       <c r="Q37" t="n">
-        <v>260.9755581809699</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R37" t="n">
-        <v>260.9755581809699</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S37" t="n">
-        <v>260.9755581809699</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T37" t="n">
-        <v>260.9755581809699</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U37" t="n">
-        <v>260.9755581809699</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V37" t="n">
-        <v>260.9755581809699</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W37" t="n">
-        <v>34.31465285444515</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X37" t="n">
-        <v>34.31465285444515</v>
+        <v>110.6966093110902</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1579.616552461097</v>
+        <v>1139.318747371158</v>
       </c>
       <c r="C38" t="n">
-        <v>1579.616552461097</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D38" t="n">
-        <v>1238.432552822484</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E38" t="n">
         <v>863.2013285178008</v>
@@ -7177,49 +7177,49 @@
         <v>79.26440887603007</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389723</v>
+        <v>525.5283691389726</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292787</v>
       </c>
       <c r="N38" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722258</v>
+        <v>1391.879729590324</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722258</v>
+        <v>1139.318747371158</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722258</v>
+        <v>1139.318747371158</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722258</v>
+        <v>1139.318747371158</v>
       </c>
       <c r="X38" t="n">
-        <v>1579.616552461097</v>
+        <v>1139.318747371158</v>
       </c>
       <c r="Y38" t="n">
-        <v>1579.616552461097</v>
+        <v>1139.318747371158</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>34.31465285444516</v>
+        <v>471.7309084104377</v>
       </c>
       <c r="C39" t="n">
-        <v>34.31465285444516</v>
+        <v>471.7309084104377</v>
       </c>
       <c r="D39" t="n">
-        <v>34.31465285444516</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="E39" t="n">
-        <v>34.31465285444516</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="F39" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
@@ -7256,13 +7256,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>195.4144734331678</v>
+        <v>112.3287381944635</v>
       </c>
       <c r="L39" t="n">
-        <v>395.2338702498415</v>
+        <v>395.2338702498417</v>
       </c>
       <c r="M39" t="n">
-        <v>770.125479802903</v>
+        <v>770.1254798029032</v>
       </c>
       <c r="N39" t="n">
         <v>1173.359244302914</v>
@@ -7277,28 +7277,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S39" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T39" t="n">
-        <v>1234.878304775051</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U39" t="n">
-        <v>995.3051791025982</v>
+        <v>1388.38574176812</v>
       </c>
       <c r="V39" t="n">
-        <v>752.2254610062323</v>
+        <v>1145.306023671754</v>
       </c>
       <c r="W39" t="n">
-        <v>482.8268917365236</v>
+        <v>875.9074544020451</v>
       </c>
       <c r="X39" t="n">
-        <v>263.31889735322</v>
+        <v>875.9074544020451</v>
       </c>
       <c r="Y39" t="n">
-        <v>37.67820428854765</v>
+        <v>650.2667613373728</v>
       </c>
     </row>
     <row r="40">
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.4532194928011</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
         <v>34.31465285444516</v>
@@ -7335,16 +7335,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514571</v>
       </c>
       <c r="L40" t="n">
         <v>105.4471208306432</v>
       </c>
       <c r="M40" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N40" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
         <v>315.4306320098955</v>
@@ -7356,28 +7356,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R40" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="S40" t="n">
-        <v>334.857675380022</v>
+        <v>158.7019259655664</v>
       </c>
       <c r="T40" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U40" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V40" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W40" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X40" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1659.530737411185</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="C41" t="n">
-        <v>1305.787810763529</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="D41" t="n">
-        <v>964.6038111249159</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="E41" t="n">
-        <v>964.6038111249159</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="F41" t="n">
-        <v>557.3318417915689</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="G41" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H41" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I41" t="n">
         <v>34.31465285444516</v>
@@ -7441,22 +7441,22 @@
         <v>1715.732642722258</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1497.385195807266</v>
       </c>
       <c r="U41" t="n">
-        <v>1659.530737411185</v>
+        <v>1244.8242135881</v>
       </c>
       <c r="V41" t="n">
-        <v>1659.530737411185</v>
+        <v>920.7032200435018</v>
       </c>
       <c r="W41" t="n">
-        <v>1659.530737411185</v>
+        <v>579.3936606235352</v>
       </c>
       <c r="X41" t="n">
-        <v>1659.530737411185</v>
+        <v>215.9767774975694</v>
       </c>
       <c r="Y41" t="n">
-        <v>1659.530737411185</v>
+        <v>215.9767774975694</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>579.569814981272</v>
+        <v>718.4979635217912</v>
       </c>
       <c r="C42" t="n">
-        <v>390.1575407142357</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D42" t="n">
-        <v>390.1575407142357</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E42" t="n">
-        <v>216.5943368356501</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F42" t="n">
-        <v>56.16662055289422</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G42" t="n">
         <v>34.31465285444516</v>
@@ -7490,25 +7490,25 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>54.40930111025867</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K42" t="n">
-        <v>215.5091216889814</v>
+        <v>112.3287381944631</v>
       </c>
       <c r="L42" t="n">
-        <v>498.4142537443595</v>
+        <v>395.2338702498412</v>
       </c>
       <c r="M42" t="n">
-        <v>873.305863297421</v>
+        <v>770.1254798029028</v>
       </c>
       <c r="N42" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O42" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P42" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7517,25 +7517,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S42" t="n">
-        <v>1715.732642722258</v>
+        <v>1635.152796879473</v>
       </c>
       <c r="T42" t="n">
-        <v>1715.732642722258</v>
+        <v>1635.152796879473</v>
       </c>
       <c r="U42" t="n">
-        <v>1715.732642722258</v>
+        <v>1635.152796879473</v>
       </c>
       <c r="V42" t="n">
-        <v>1472.652924625892</v>
+        <v>1392.073078783108</v>
       </c>
       <c r="W42" t="n">
-        <v>1203.254355356183</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="X42" t="n">
-        <v>983.7463609728795</v>
+        <v>1122.674509513399</v>
       </c>
       <c r="Y42" t="n">
-        <v>758.1056679082071</v>
+        <v>897.0338164487264</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1715.732642722258</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="C43" t="n">
-        <v>1715.732642722258</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="D43" t="n">
-        <v>1715.732642722258</v>
+        <v>155.4466444053068</v>
       </c>
       <c r="E43" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F43" t="n">
-        <v>1584.94215937206</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587381</v>
+        <v>42.2304192451457</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306432</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662944</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098955</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="W43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="X43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
       <c r="Y43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.857675380022</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C44" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D44" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E44" t="n">
-        <v>1386.218517454924</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F44" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G44" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602976</v>
       </c>
       <c r="K44" t="n">
-        <v>253.897506719375</v>
+        <v>253.8975067193749</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292778</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157782</v>
@@ -7672,28 +7672,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T44" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U44" t="n">
-        <v>1715.732642722258</v>
+        <v>1160.987610990982</v>
       </c>
       <c r="V44" t="n">
-        <v>1715.732642722258</v>
+        <v>836.8666174463843</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.732642722258</v>
+        <v>836.8666174463843</v>
       </c>
       <c r="X44" t="n">
-        <v>1715.732642722258</v>
+        <v>473.4497343204185</v>
       </c>
       <c r="Y44" t="n">
-        <v>1715.732642722258</v>
+        <v>87.30269652400449</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1007.439105888766</v>
+        <v>424.878314873977</v>
       </c>
       <c r="C45" t="n">
-        <v>879.7061105840106</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="D45" t="n">
-        <v>718.9259943450423</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="E45" t="n">
-        <v>545.3627904664568</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="F45" t="n">
-        <v>384.9350741837009</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G45" t="n">
         <v>235.4660406069408</v>
@@ -7745,34 +7745,34 @@
         <v>1589.672661844326</v>
       </c>
       <c r="P45" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007116</v>
       </c>
       <c r="T45" t="n">
-        <v>1715.732642722258</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U45" t="n">
-        <v>1476.159517049805</v>
+        <v>1115.892455166987</v>
       </c>
       <c r="V45" t="n">
-        <v>1233.079798953439</v>
+        <v>872.8127370706208</v>
       </c>
       <c r="W45" t="n">
-        <v>1233.079798953439</v>
+        <v>603.4141678009121</v>
       </c>
       <c r="X45" t="n">
-        <v>1233.079798953439</v>
+        <v>603.4141678009121</v>
       </c>
       <c r="Y45" t="n">
-        <v>1007.439105888766</v>
+        <v>603.4141678009121</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="H46" t="n">
-        <v>34.31465285444516</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444516</v>
+        <v>109.6523243044814</v>
       </c>
       <c r="J46" t="n">
         <v>34.31465285444516</v>
@@ -7830,28 +7830,28 @@
         <v>334.857675380022</v>
       </c>
       <c r="R46" t="n">
-        <v>334.857675380022</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="S46" t="n">
-        <v>334.857675380022</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="T46" t="n">
-        <v>325.8513534943079</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="U46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="V46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="W46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="X46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444516</v>
+        <v>271.3523182773347</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976323</v>
       </c>
       <c r="K12" t="n">
         <v>171.373473584151</v>
@@ -8780,16 +8780,16 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>135.2351585535087</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>102.1412644882567</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.6763675213176</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,16 +9005,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>61.40936639976321</v>
+        <v>61.40936639976323</v>
       </c>
       <c r="K15" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>240.3045437566416</v>
+        <v>64.92584373552843</v>
       </c>
       <c r="M15" t="n">
-        <v>126.3981812888866</v>
+        <v>301.77688131</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9245,16 +9245,16 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491727</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M18" t="n">
-        <v>301.77688131</v>
+        <v>268.8276482817241</v>
       </c>
       <c r="N18" t="n">
-        <v>114.9375340526875</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.40936639976321</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>8.646382090491727</v>
+        <v>67.15086399372882</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>123.478473925376</v>
+        <v>44.6763675213176</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,16 +9716,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849454974</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M24" t="n">
-        <v>106.1005567880653</v>
+        <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
         <v>310.6138585746227</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,16 +9953,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>61.40936639976321</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K27" t="n">
-        <v>8.646382090491699</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
-        <v>227.6529352291874</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>301.77688131</v>
+        <v>217.8518962203996</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>61.40936639976321</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K30" t="n">
-        <v>87.44848849455005</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>206.3638740786793</v>
+        <v>122.4388889890791</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131759</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,13 +10427,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K33" t="n">
         <v>171.373473584151</v>
       </c>
       <c r="L33" t="n">
-        <v>240.3045437566416</v>
+        <v>156.3795586670412</v>
       </c>
       <c r="M33" t="n">
         <v>301.77688131</v>
@@ -10445,10 +10445,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>102.1412644882567</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.67636752131759</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,7 +10667,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>8.646382090491699</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.1808494245544</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,13 +10901,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>61.40936639976321</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K39" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455063</v>
       </c>
       <c r="L39" t="n">
-        <v>156.3795586670411</v>
+        <v>240.3045437566416</v>
       </c>
       <c r="M39" t="n">
         <v>301.77688131</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.67636752131759</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>81.70699090058493</v>
+        <v>61.4093663997632</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>87.44848849455019</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>114.9375340526873</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>109.5746066315038</v>
+        <v>109.5746066315037</v>
       </c>
       <c r="K44" t="n">
         <v>210.0462273461148</v>
@@ -11308,7 +11308,7 @@
         <v>291.2847697033555</v>
       </c>
       <c r="N44" t="n">
-        <v>283.4008070189656</v>
+        <v>283.4008070189657</v>
       </c>
       <c r="O44" t="n">
         <v>246.758517458259</v>
@@ -11393,10 +11393,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>10.68754955674412</v>
+        <v>102.1412644882569</v>
       </c>
       <c r="Q45" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131757</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>45.2599280469766</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.1586043385367</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,19 +23305,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>337.8964638257669</v>
@@ -23339,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>122.6943632866711</v>
       </c>
       <c r="D12" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -23351,13 +23351,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>30.87974354738617</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23433,13 +23433,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>82.56286578368675</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.58429473553588</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706154</v>
+        <v>73.14329602706155</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
@@ -23472,13 +23472,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W13" t="n">
-        <v>290.3107070893353</v>
+        <v>281.3944484224787</v>
       </c>
       <c r="X13" t="n">
         <v>221.9194554082425</v>
@@ -23500,22 +23500,22 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>45.2599280469766</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,19 +23542,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>176.8082464087583</v>
       </c>
       <c r="V14" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>337.8964638257669</v>
@@ -23582,13 +23582,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886886</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
@@ -23630,19 +23630,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>240.6489209154022</v>
+        <v>106.7168757809285</v>
       </c>
       <c r="W15" t="n">
-        <v>244.0041632556752</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="16">
@@ -23661,7 +23661,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>138.9268822184467</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706154</v>
+        <v>73.14329602706155</v>
       </c>
       <c r="R16" t="n">
-        <v>101.0407884212467</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>65.14094611261089</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
@@ -23740,16 +23740,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>295.295300443951</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>299.4415175922426</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>359.7827142947061</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>86.52454094903594</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>44.4889159390364</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886886</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -23907,10 +23907,10 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I19" t="n">
-        <v>7.978571048150485</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
         <v>74.58429473553588</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706154</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
@@ -23952,13 +23952,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>209.9143876031828</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y19" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>332.2779548450047</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
-        <v>17.92118194887581</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>230.5375099500128</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24034,7 +24034,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24050,7 +24050,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24059,16 +24059,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>134.1868172903441</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>80.84345120350707</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>19.28711873658574</v>
       </c>
     </row>
     <row r="22">
@@ -24183,13 +24183,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>237.8821299734638</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>281.3944484224785</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24208,7 +24208,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>109.7394887067676</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
         <v>337.7721596422273</v>
@@ -24220,10 +24220,10 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>185.5090622027478</v>
@@ -24265,13 +24265,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>210.2169722970896</v>
       </c>
       <c r="Y23" t="n">
         <v>382.2855674184499</v>
@@ -24287,13 +24287,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>68.8369947144149</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>197.6431818269572</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>145.1826502507107</v>
@@ -24378,7 +24378,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.0550137836253</v>
+        <v>36.97460245527651</v>
       </c>
       <c r="H25" t="n">
         <v>160.0829940331247</v>
@@ -24387,7 +24387,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X25" t="n">
-        <v>141.5231359220899</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>259.9639757988519</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>93.84238082624469</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
         <v>250.0353723969745</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,19 +24530,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>54.41349362846779</v>
       </c>
       <c r="H27" t="n">
-        <v>38.26957060676396</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
         <v>237.1773944157285</v>
@@ -24584,7 +24584,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>68.32273771316048</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F28" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>160.0829940331247</v>
@@ -24624,7 +24624,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T28" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213336334641</v>
+        <v>159.1387551167683</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>369.0914689455876</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>10.29442892999191</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,25 +24761,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>21.33884894123381</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>70.71854440672485</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24861,7 +24861,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J31" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>281.3944484224784</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W31" t="n">
-        <v>237.8821299734642</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>221.9194554082425</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>188.7331825667999</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>180.7224894295929</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -24998,25 +24998,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.84345120350706</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25055,16 +25055,16 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>184.346442444893</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>184.188235604604</v>
       </c>
     </row>
     <row r="34">
@@ -25098,7 +25098,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J34" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>147.6489937016423</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
         <v>288.6213336334641</v>
@@ -25140,7 +25140,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>221.9194554082425</v>
+        <v>148.566051909178</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>417.3985592667085</v>
@@ -25201,22 +25201,22 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>208.9277786639779</v>
+        <v>2.764478489805924</v>
       </c>
       <c r="U35" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>359.7827142947061</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -25241,16 +25241,16 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9665067517026</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
         <v>80.84345120350706</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2.714630753914406</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>73.14329602706152</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
@@ -25374,13 +25374,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>65.9164108160758</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.1412728141684</v>
+        <v>141.5231359220899</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
-        <v>350.2054973811788</v>
+        <v>76.84925271635564</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25456,7 +25456,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X38" t="n">
-        <v>225.027784936157</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
         <v>382.2855674184499</v>
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>173.4205784779043</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>84.09353507104493</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.53650933661939</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -25572,7 +25572,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J40" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553586</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R40" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T40" t="n">
-        <v>221.0023972007068</v>
+        <v>97.85899682069677</v>
       </c>
       <c r="U40" t="n">
         <v>288.6213336334641</v>
@@ -25630,25 +25630,25 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.3985592667085</v>
+        <v>237.5530558700155</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>194.3954861390123</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>382.2855674184499</v>
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,7 +25721,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>126.3408952195279</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H42" t="n">
         <v>118.2964226714636</v>
@@ -25757,7 +25757,7 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S42" t="n">
-        <v>177.283526739121</v>
+        <v>97.50947935476471</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>166.4571809719723</v>
@@ -25794,13 +25794,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>21.75546957687199</v>
       </c>
       <c r="F43" t="n">
-        <v>9.44430370175067</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>374.0872403778333</v>
+        <v>321.6290771449696</v>
       </c>
       <c r="C44" t="n">
         <v>350.2054973811788</v>
@@ -25873,19 +25873,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>45.25992804697637</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>61.06248617265777</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>119.3814033037447</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26040,13 +26040,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H46" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553586</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>73.14329602706152</v>
       </c>
       <c r="R46" t="n">
-        <v>174.3941919203111</v>
+        <v>111.5238883886506</v>
       </c>
       <c r="S46" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T46" t="n">
-        <v>212.0861385338498</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>547134.6358147894</v>
+        <v>547134.6358147893</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>547134.6358147893</v>
+        <v>547134.6358147894</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>547134.6358147894</v>
+        <v>547134.6358147893</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>547134.6358147893</v>
+        <v>547134.6358147894</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>547134.6358147893</v>
+        <v>547134.6358147894</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>547134.6358147893</v>
+        <v>547134.6358147896</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>547134.6358147893</v>
+        <v>547134.6358147894</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>639400.696502933</v>
+      </c>
+      <c r="C2" t="n">
         <v>639400.6965029332</v>
       </c>
-      <c r="C2" t="n">
-        <v>639400.6965029334</v>
-      </c>
       <c r="D2" t="n">
-        <v>639400.6965029333</v>
+        <v>639400.696502933</v>
       </c>
       <c r="E2" t="n">
         <v>363170.0814330821</v>
@@ -26331,31 +26331,31 @@
         <v>363170.0814330821</v>
       </c>
       <c r="H2" t="n">
-        <v>363170.0814330821</v>
+        <v>363170.0814330822</v>
       </c>
       <c r="I2" t="n">
-        <v>363170.0814330821</v>
+        <v>363170.0814330823</v>
       </c>
       <c r="J2" t="n">
-        <v>363170.0814330821</v>
+        <v>363170.0814330822</v>
       </c>
       <c r="K2" t="n">
-        <v>363170.0814330821</v>
+        <v>363170.0814330822</v>
       </c>
       <c r="L2" t="n">
-        <v>363170.0814330824</v>
+        <v>363170.0814330822</v>
       </c>
       <c r="M2" t="n">
+        <v>363170.0814330823</v>
+      </c>
+      <c r="N2" t="n">
         <v>363170.0814330822</v>
       </c>
-      <c r="N2" t="n">
-        <v>363170.0814330821</v>
-      </c>
       <c r="O2" t="n">
-        <v>363170.0814330821</v>
+        <v>363170.0814330819</v>
       </c>
       <c r="P2" t="n">
-        <v>363170.0814330821</v>
+        <v>363170.0814330822</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174923</v>
+        <v>497053.1518174922</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>106891.8593742394</v>
+        <v>106891.8593742393</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>414368.6261668352</v>
       </c>
       <c r="C4" t="n">
-        <v>414368.6261668352</v>
+        <v>414368.6261668353</v>
       </c>
       <c r="D4" t="n">
         <v>414368.6261668352</v>
@@ -26444,10 +26444,10 @@
         <v>34009.01571095565</v>
       </c>
       <c r="K4" t="n">
-        <v>34009.01571095565</v>
+        <v>34009.01571095566</v>
       </c>
       <c r="L4" t="n">
-        <v>34009.01571095565</v>
+        <v>34009.01571095566</v>
       </c>
       <c r="M4" t="n">
         <v>34009.01571095565</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>36091.33751189044</v>
+        <v>36091.33751189043</v>
       </c>
       <c r="F5" t="n">
         <v>36091.33751189044</v>
@@ -26487,25 +26487,25 @@
         <v>36091.33751189044</v>
       </c>
       <c r="H5" t="n">
+        <v>36091.33751189045</v>
+      </c>
+      <c r="I5" t="n">
         <v>36091.33751189044</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="M5" t="n">
         <v>36091.33751189045</v>
       </c>
-      <c r="J5" t="n">
-        <v>36091.33751189044</v>
-      </c>
-      <c r="K5" t="n">
-        <v>36091.33751189044</v>
-      </c>
-      <c r="L5" t="n">
-        <v>36091.33751189044</v>
-      </c>
-      <c r="M5" t="n">
-        <v>36091.33751189044</v>
-      </c>
       <c r="N5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
         <v>36091.33751189045</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>191404.470336098</v>
+        <v>191359.8064940459</v>
       </c>
       <c r="C6" t="n">
-        <v>191404.4703360982</v>
+        <v>191359.806494046</v>
       </c>
       <c r="D6" t="n">
-        <v>191404.4703360981</v>
+        <v>191359.8064940459</v>
       </c>
       <c r="E6" t="n">
-        <v>-203983.4236072563</v>
+        <v>-213553.2810724063</v>
       </c>
       <c r="F6" t="n">
-        <v>293069.7282102359</v>
+        <v>283499.8707450857</v>
       </c>
       <c r="G6" t="n">
-        <v>293069.7282102359</v>
+        <v>283499.8707450857</v>
       </c>
       <c r="H6" t="n">
-        <v>293069.728210236</v>
+        <v>283499.8707450858</v>
       </c>
       <c r="I6" t="n">
-        <v>293069.7282102359</v>
+        <v>283499.8707450859</v>
       </c>
       <c r="J6" t="n">
-        <v>293069.728210236</v>
+        <v>283499.8707450858</v>
       </c>
       <c r="K6" t="n">
-        <v>293069.7282102359</v>
+        <v>283499.8707450859</v>
       </c>
       <c r="L6" t="n">
-        <v>293069.7282102363</v>
+        <v>283499.8707450858</v>
       </c>
       <c r="M6" t="n">
-        <v>186177.8688359967</v>
+        <v>176608.0113708466</v>
       </c>
       <c r="N6" t="n">
-        <v>293069.728210236</v>
+        <v>283499.8707450859</v>
       </c>
       <c r="O6" t="n">
-        <v>293069.728210236</v>
+        <v>283499.8707450856</v>
       </c>
       <c r="P6" t="n">
-        <v>293069.7282102359</v>
+        <v>283499.8707450858</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409234</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409234</v>
       </c>
       <c r="G3" t="n">
         <v>459.2752909409235</v>
@@ -26758,22 +26758,22 @@
         <v>459.2752909409235</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="O3" t="n">
         <v>459.2752909409236</v>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805642</v>
       </c>
       <c r="F4" t="n">
         <v>428.9331606805644</v>
@@ -26807,25 +26807,25 @@
         <v>428.9331606805644</v>
       </c>
       <c r="H4" t="n">
+        <v>428.9331606805645</v>
+      </c>
+      <c r="I4" t="n">
         <v>428.9331606805644</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="K4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="L4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="M4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="J4" t="n">
-        <v>428.9331606805644</v>
-      </c>
-      <c r="K4" t="n">
-        <v>428.9331606805644</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.9331606805644</v>
-      </c>
-      <c r="M4" t="n">
-        <v>428.9331606805644</v>
-      </c>
       <c r="N4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="O4" t="n">
         <v>428.9331606805644</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409234</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805641</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805642</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805644</v>
+        <v>428.9331606805641</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.846332827903209</v>
+        <v>1.846332827903208</v>
       </c>
       <c r="H11" t="n">
         <v>18.90875607376374</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773851</v>
       </c>
       <c r="J11" t="n">
         <v>156.7051908522501</v>
@@ -31770,13 +31770,13 @@
         <v>291.3651677393358</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675594</v>
       </c>
       <c r="N11" t="n">
         <v>329.4457823148395</v>
       </c>
       <c r="O11" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573769</v>
       </c>
       <c r="P11" t="n">
         <v>265.5049685685165</v>
@@ -31791,10 +31791,10 @@
         <v>42.0733093158444</v>
       </c>
       <c r="T11" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146298</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1477066262322567</v>
+        <v>0.1477066262322566</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.9878751540993448</v>
       </c>
       <c r="H12" t="n">
-        <v>9.540794251433148</v>
+        <v>9.540794251433146</v>
       </c>
       <c r="I12" t="n">
         <v>34.0123682442099</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357013</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582262</v>
@@ -31849,13 +31849,13 @@
         <v>214.4945592267021</v>
       </c>
       <c r="M12" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628032</v>
       </c>
       <c r="N12" t="n">
         <v>256.9298629953379</v>
       </c>
       <c r="O12" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176629</v>
       </c>
       <c r="P12" t="n">
         <v>188.6408265753389</v>
@@ -31864,7 +31864,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943127</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
@@ -31873,7 +31873,7 @@
         <v>3.981830116742533</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390428</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196978</v>
       </c>
       <c r="H13" t="n">
         <v>7.363462861315138</v>
@@ -31922,7 +31922,7 @@
         <v>58.55383504340264</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368851</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
@@ -31940,7 +31940,7 @@
         <v>100.1671880439023</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207943</v>
       </c>
       <c r="R13" t="n">
         <v>37.23894408186568</v>
@@ -31952,7 +31952,7 @@
         <v>3.538678471184163</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.04517461878107448</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.846332827903209</v>
+        <v>1.846332827903208</v>
       </c>
       <c r="H14" t="n">
         <v>18.90875607376374</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773851</v>
       </c>
       <c r="J14" t="n">
         <v>156.7051908522501</v>
@@ -32007,13 +32007,13 @@
         <v>291.3651677393358</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675594</v>
       </c>
       <c r="N14" t="n">
         <v>329.4457823148395</v>
       </c>
       <c r="O14" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573769</v>
       </c>
       <c r="P14" t="n">
         <v>265.5049685685165</v>
@@ -32028,10 +32028,10 @@
         <v>42.0733093158444</v>
       </c>
       <c r="T14" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146298</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1477066262322567</v>
+        <v>0.1477066262322566</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9878751540993449</v>
+        <v>0.9878751540993448</v>
       </c>
       <c r="H15" t="n">
-        <v>9.540794251433148</v>
+        <v>9.540794251433146</v>
       </c>
       <c r="I15" t="n">
         <v>34.0123682442099</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357013</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582262</v>
@@ -32086,13 +32086,13 @@
         <v>214.4945592267021</v>
       </c>
       <c r="M15" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628032</v>
       </c>
       <c r="N15" t="n">
         <v>256.9298629953379</v>
       </c>
       <c r="O15" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176629</v>
       </c>
       <c r="P15" t="n">
         <v>188.6408265753389</v>
@@ -32101,7 +32101,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943127</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
@@ -32110,7 +32110,7 @@
         <v>3.981830116742533</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390428</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196979</v>
+        <v>0.8282013443196978</v>
       </c>
       <c r="H16" t="n">
         <v>7.363462861315138</v>
@@ -32159,7 +32159,7 @@
         <v>58.55383504340264</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368852</v>
+        <v>96.22193800368851</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
@@ -32177,7 +32177,7 @@
         <v>100.1671880439023</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207944</v>
+        <v>69.35056893207943</v>
       </c>
       <c r="R16" t="n">
         <v>37.23894408186568</v>
@@ -32189,7 +32189,7 @@
         <v>3.538678471184163</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.04517461878107448</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32238,7 +32238,7 @@
         <v>156.7051908522501</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573929</v>
       </c>
       <c r="L17" t="n">
         <v>291.3651677393358</v>
@@ -32247,7 +32247,7 @@
         <v>324.1998891675595</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148395</v>
       </c>
       <c r="O17" t="n">
         <v>311.086310257377</v>
@@ -32256,13 +32256,13 @@
         <v>265.5049685685165</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692327</v>
       </c>
       <c r="R17" t="n">
         <v>115.979704500775</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584441</v>
+        <v>42.0733093158444</v>
       </c>
       <c r="T17" t="n">
         <v>8.0823219541463</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993449</v>
       </c>
       <c r="H18" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433148</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420991</v>
+        <v>34.0123682442099</v>
       </c>
       <c r="J18" t="n">
         <v>93.33253813357014</v>
       </c>
       <c r="K18" t="n">
-        <v>159.5201734582263</v>
+        <v>159.5201734582262</v>
       </c>
       <c r="L18" t="n">
         <v>214.4945592267021</v>
@@ -32326,13 +32326,13 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N18" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953379</v>
       </c>
       <c r="O18" t="n">
         <v>235.040629317663</v>
       </c>
       <c r="P18" t="n">
-        <v>188.640826575339</v>
+        <v>188.6408265753389</v>
       </c>
       <c r="Q18" t="n">
         <v>126.1013968636287</v>
@@ -32344,7 +32344,7 @@
         <v>18.34934770881896</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742533</v>
       </c>
       <c r="U18" t="n">
         <v>0.0649917864539043</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196979</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315138</v>
       </c>
       <c r="I19" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340264</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368852</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
@@ -32411,19 +32411,19 @@
         <v>117.0624954680243</v>
       </c>
       <c r="P19" t="n">
-        <v>100.1671880439024</v>
+        <v>100.1671880439023</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207944</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186569</v>
+        <v>37.23894408186568</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184163</v>
       </c>
       <c r="U19" t="n">
         <v>0.04517461878107449</v>
@@ -32706,7 +32706,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J23" t="n">
         <v>156.7051908522501</v>
@@ -32715,10 +32715,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
         <v>329.4457823148396</v>
@@ -32733,13 +32733,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H24" t="n">
         <v>9.54079425143315</v>
@@ -32788,7 +32788,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
@@ -32812,7 +32812,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S24" t="n">
         <v>18.34934770881896</v>
@@ -32821,7 +32821,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,25 +32858,25 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M25" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
         <v>126.7373929903044</v>
@@ -32900,7 +32900,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J26" t="n">
         <v>156.7051908522501</v>
@@ -32952,10 +32952,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N26" t="n">
         <v>329.4457823148396</v>
@@ -32970,13 +32970,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R26" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T26" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H27" t="n">
         <v>9.54079425143315</v>
@@ -33025,7 +33025,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J27" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
@@ -33049,7 +33049,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S27" t="n">
         <v>18.34934770881896</v>
@@ -33058,7 +33058,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,25 +33095,25 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I28" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L28" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M28" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N28" t="n">
         <v>126.7373929903044</v>
@@ -33137,7 +33137,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J29" t="n">
         <v>156.7051908522501</v>
@@ -33189,10 +33189,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N29" t="n">
         <v>329.4457823148396</v>
@@ -33207,13 +33207,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R29" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T29" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H30" t="n">
         <v>9.54079425143315</v>
@@ -33262,7 +33262,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J30" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
@@ -33286,7 +33286,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S30" t="n">
         <v>18.34934770881896</v>
@@ -33295,7 +33295,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,25 +33332,25 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I31" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L31" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M31" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N31" t="n">
         <v>126.7373929903044</v>
@@ -33374,7 +33374,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J32" t="n">
         <v>156.7051908522501</v>
@@ -33426,10 +33426,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N32" t="n">
         <v>329.4457823148396</v>
@@ -33444,13 +33444,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R32" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T32" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H33" t="n">
         <v>9.54079425143315</v>
@@ -33499,7 +33499,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J33" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
@@ -33523,7 +33523,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S33" t="n">
         <v>18.34934770881896</v>
@@ -33532,7 +33532,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,25 +33569,25 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I34" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L34" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M34" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N34" t="n">
         <v>126.7373929903044</v>
@@ -33611,7 +33611,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J35" t="n">
         <v>156.7051908522501</v>
@@ -33663,10 +33663,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N35" t="n">
         <v>329.4457823148396</v>
@@ -33681,13 +33681,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R35" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T35" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H36" t="n">
         <v>9.54079425143315</v>
@@ -33736,7 +33736,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J36" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
@@ -33760,7 +33760,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S36" t="n">
         <v>18.34934770881896</v>
@@ -33769,7 +33769,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,25 +33806,25 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L37" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M37" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N37" t="n">
         <v>126.7373929903044</v>
@@ -33848,7 +33848,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>18.90875607376374</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773853</v>
       </c>
       <c r="J38" t="n">
         <v>156.7051908522501</v>
@@ -33900,10 +33900,10 @@
         <v>234.860459457393</v>
       </c>
       <c r="L38" t="n">
-        <v>291.3651677393358</v>
+        <v>291.3651677393359</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N38" t="n">
         <v>329.4457823148396</v>
@@ -33918,13 +33918,13 @@
         <v>199.3831741692328</v>
       </c>
       <c r="R38" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T38" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993451</v>
       </c>
       <c r="H39" t="n">
         <v>9.54079425143315</v>
@@ -33973,7 +33973,7 @@
         <v>34.01236824420991</v>
       </c>
       <c r="J39" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357015</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
@@ -33997,7 +33997,7 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943129</v>
       </c>
       <c r="S39" t="n">
         <v>18.34934770881896</v>
@@ -34006,7 +34006,7 @@
         <v>3.981830116742534</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,25 +34043,25 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196982</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315139</v>
+        <v>7.36346286131514</v>
       </c>
       <c r="I40" t="n">
         <v>24.90627315463238</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368855</v>
       </c>
       <c r="L40" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M40" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N40" t="n">
         <v>126.7373929903044</v>
@@ -34085,7 +34085,7 @@
         <v>3.538678471184164</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119663</v>
+        <v>45.4037939611966</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286314</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M11" t="n">
         <v>334.4622543336422</v>
@@ -35424,13 +35424,13 @@
         <v>332.9626517459643</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811781</v>
       </c>
       <c r="P11" t="n">
         <v>191.9262766422084</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002258</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936592</v>
@@ -35500,16 +35500,16 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>231.9281328071799</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867615</v>
       </c>
       <c r="P12" t="n">
-        <v>127.3333140181127</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>91.45371493151259</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970204</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676512</v>
+        <v>63.8552541267651</v>
       </c>
       <c r="M13" t="n">
-        <v>76.00912912692037</v>
+        <v>76.00912912692034</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793116</v>
+        <v>82.29890925793114</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186791</v>
       </c>
       <c r="P13" t="n">
-        <v>19.62327613144089</v>
+        <v>19.62327613144087</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119663</v>
+        <v>45.4037939611966</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286314</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M14" t="n">
         <v>334.4622543336422</v>
@@ -35661,13 +35661,13 @@
         <v>332.9626517459643</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811781</v>
       </c>
       <c r="P14" t="n">
         <v>191.9262766422084</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002261</v>
+        <v>65.75034647002258</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,10 +35731,10 @@
         <v>162.7270914936592</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518971</v>
+        <v>110.384059630784</v>
       </c>
       <c r="M15" t="n">
-        <v>203.2996934668275</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N15" t="n">
         <v>407.306832828294</v>
@@ -35746,7 +35746,7 @@
         <v>231.5559236085353</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151261</v>
+        <v>91.45371493151259</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970218</v>
+        <v>7.995723626970204</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676512</v>
+        <v>63.8552541267651</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692037</v>
+        <v>76.00912912692034</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793116</v>
+        <v>82.29890925793114</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186792</v>
+        <v>53.79651836186791</v>
       </c>
       <c r="P16" t="n">
-        <v>19.62327613144089</v>
+        <v>19.62327613144087</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,16 +35886,16 @@
         <v>45.40379396119663</v>
       </c>
       <c r="K17" t="n">
-        <v>176.3970685286315</v>
+        <v>176.3970685286314</v>
       </c>
       <c r="L17" t="n">
         <v>274.3746085046433</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336422</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459643</v>
       </c>
       <c r="O17" t="n">
         <v>277.1250097811782</v>
@@ -35904,7 +35904,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002261</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>20.29762450082171</v>
       </c>
       <c r="K18" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M18" t="n">
-        <v>378.6783934879409</v>
+        <v>345.729160459665</v>
       </c>
       <c r="N18" t="n">
-        <v>211.6305083063588</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867615</v>
       </c>
       <c r="P18" t="n">
-        <v>231.5559236085354</v>
+        <v>231.5559236085353</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.45371493151262</v>
+        <v>91.45371493151261</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970218</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676512</v>
       </c>
       <c r="M19" t="n">
         <v>76.00912912692037</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793116</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186792</v>
       </c>
       <c r="P19" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144089</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>20.29762450082171</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>58.50448190323709</v>
       </c>
       <c r="L21" t="n">
         <v>285.7627596518971</v>
@@ -36220,7 +36220,7 @@
         <v>231.5559236085353</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.80210640405838</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
@@ -36366,7 +36366,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M23" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
         <v>332.9626517459644</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405807</v>
       </c>
       <c r="L24" t="n">
         <v>285.7627596518971</v>
       </c>
       <c r="M24" t="n">
-        <v>183.0020689660062</v>
+        <v>378.6783934879409</v>
       </c>
       <c r="N24" t="n">
         <v>407.306832828294</v>
@@ -36457,7 +36457,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151262</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P25" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K26" t="n">
         <v>176.3970685286315</v>
@@ -36603,7 +36603,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M26" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N26" t="n">
         <v>332.9626517459644</v>
@@ -36615,7 +36615,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
-        <v>273.1111511244429</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M27" t="n">
-        <v>378.6783934879409</v>
+        <v>294.7534083983406</v>
       </c>
       <c r="N27" t="n">
         <v>407.306832828294</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.45371493151262</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L28" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M28" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O28" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P28" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K29" t="n">
         <v>176.3970685286315</v>
@@ -36840,7 +36840,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N29" t="n">
         <v>332.9626517459644</v>
@@ -36852,7 +36852,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>78.80210640405835</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518971</v>
@@ -36928,7 +36928,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>231.5559236085354</v>
+        <v>147.6309385189352</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L31" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M31" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O31" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P31" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K32" t="n">
         <v>176.3970685286315</v>
@@ -37077,7 +37077,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M32" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
         <v>332.9626517459644</v>
@@ -37089,7 +37089,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L33" t="n">
-        <v>285.7627596518971</v>
+        <v>201.8377745622968</v>
       </c>
       <c r="M33" t="n">
         <v>378.6783934879409</v>
@@ -37165,7 +37165,7 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>127.3333140181127</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L34" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M34" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O34" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P34" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K35" t="n">
         <v>176.3970685286315</v>
@@ -37314,7 +37314,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M35" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
         <v>332.9626517459644</v>
@@ -37326,7 +37326,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082171</v>
+        <v>20.29762450082173</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518971</v>
@@ -37396,7 +37396,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N36" t="n">
-        <v>407.306832828294</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
@@ -37405,7 +37405,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>58.50448190323682</v>
+        <v>91.45371493151264</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L37" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M37" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O37" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P37" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119666</v>
       </c>
       <c r="K38" t="n">
         <v>176.3970685286315</v>
@@ -37551,7 +37551,7 @@
         <v>274.3746085046433</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
         <v>332.9626517459644</v>
@@ -37563,7 +37563,7 @@
         <v>191.9262766422084</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002266</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405896</v>
       </c>
       <c r="L39" t="n">
-        <v>201.8377745622967</v>
+        <v>285.7627596518971</v>
       </c>
       <c r="M39" t="n">
         <v>378.6783934879409</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970246</v>
       </c>
       <c r="L40" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676515</v>
       </c>
       <c r="M40" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793119</v>
       </c>
       <c r="O40" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186795</v>
       </c>
       <c r="P40" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>20.29762450082173</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405852</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518971</v>
@@ -37870,7 +37870,7 @@
         <v>378.6783934879409</v>
       </c>
       <c r="N42" t="n">
-        <v>211.6305083063586</v>
+        <v>407.306832828294</v>
       </c>
       <c r="O42" t="n">
         <v>316.2959939867616</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119657</v>
       </c>
       <c r="K44" t="n">
         <v>176.3970685286315</v>
@@ -38028,7 +38028,7 @@
         <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459643</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O44" t="n">
         <v>277.1250097811782</v>
@@ -38113,10 +38113,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P45" t="n">
-        <v>35.87959908660021</v>
+        <v>127.333314018113</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
